--- a/data/income_statement/1digit/total/F_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/F_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>F-Construction</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>F-Construction</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,209 +841,239 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>86291765.85822999</v>
+        <v>86291804.72506998</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>96194181.237</v>
+        <v>96210094.09378001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>119889795.82834</v>
+        <v>120082383.47815</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>144068320.25163</v>
+        <v>146831055.04356</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>171488926.75356</v>
+        <v>173965865.63366</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>204775845.24752</v>
+        <v>209702296.51012</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>214853622.60903</v>
+        <v>235795853.82141</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>292848549.8369599</v>
+        <v>292236669.09551</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>361116277.54458</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>432233641.69809</v>
+        <v>434543699.74711</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>473623928.7430699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>484645957.21268</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>509873402.386</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>80124057.33027998</v>
+        <v>80124094.08027998</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>89528805.41745</v>
+        <v>89544450.93644999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>110665968.42422</v>
+        <v>110841598.47993</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>133143805.59797</v>
+        <v>134141090.70593</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>156996924.33582</v>
+        <v>158980334.49965</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>189217258.9785</v>
+        <v>193875598.9760101</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>199717880.92007</v>
+        <v>219659329.3369</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>268902467.2345499</v>
+        <v>268278651.60091</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>329285972.46325</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>395227159.5565701</v>
+        <v>397503965.44862</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>431777282.04976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>442388724.6776999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>466038933.005</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4589274.83741</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4907792.209909999</v>
+        <v>4907792.209910001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6867264.26699</v>
+        <v>6883959.162780001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>8386153.26946</v>
+        <v>10143977.58027</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>11182164.74158</v>
+        <v>11514887.01388</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>12055948.19875</v>
+        <v>12218251.50123</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11188395.89163</v>
+        <v>11785062.79051</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>18879247.29203</v>
+        <v>18884111.90675</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>25361067.69808</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>29092495.85094</v>
+        <v>29109939.79404</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>31530791.45362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>31830743.31572</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>34419936.988</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1578433.69054</v>
+        <v>1578435.80738</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1757583.60964</v>
+        <v>1757850.94742</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2356563.13713</v>
+        <v>2356825.83544</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2538361.384199999</v>
+        <v>2545986.75736</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>3309837.67616</v>
+        <v>3470644.12013</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3502638.07027</v>
+        <v>3608446.03288</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3947345.797330001</v>
+        <v>4351461.694000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5066835.31038</v>
+        <v>5073905.587850002</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>6469237.38325</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7913986.29058</v>
+        <v>7929794.50445</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>10315855.23969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10426489.21926</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>9414532.392999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>369256.64993</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>771330.75419</v>
+        <v>771330.7541899999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>536439.46085</v>
+        <v>537351.7138799999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>548363.5942899999</v>
+        <v>549602.5234900001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>687119.12176</v>
+        <v>691567.47626</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1255050.13567</v>
+        <v>1278394.37141</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2343309.33267</v>
+        <v>2405293.76091</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4529277.345570001</v>
+        <v>3532069.55678</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>3134408.486169999</v>
+        <v>3134408.48617</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3134244.6058</v>
+        <v>3137409.807459999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3636622.2775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3926926.56187</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>6076035.373</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>205563.28581</v>
@@ -1151,37 +1082,42 @@
         <v>216632.82095</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>283267.7358</v>
+        <v>284179.98883</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>372040.45647</v>
+        <v>373192.83565</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>522118.7547500001</v>
+        <v>526298.77935</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>982240.81134</v>
+        <v>1005147.81632</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2028113.83676</v>
+        <v>2079924.83825</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3955001.94092</v>
+        <v>2957765.37721</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1902803.27977</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2336651.52988</v>
+        <v>2339627.19012</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2406474.06841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2419984.9451</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>4995933.905</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>126241.23714</v>
@@ -1193,37 +1129,42 @@
         <v>228731.76441</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>142859.60095</v>
+        <v>142863.61641</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>127151.92878</v>
+        <v>127420.19124</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>224380.8139899999</v>
+        <v>224591.40846</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>261210.08029</v>
+        <v>270430.72525</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>463769.78155</v>
+        <v>463797.7852700001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1134007.86948</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>547992.08335</v>
+        <v>547996.317</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1032264.17835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1034445.36278</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>882651.806</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>37452.12698</v>
+        <v>37452.12697999999</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>19646.34163</v>
@@ -1232,112 +1173,127 @@
         <v>24439.96064</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>33463.53687</v>
+        <v>33546.07143</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>37848.43823000001</v>
+        <v>37848.50567</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>48428.51033999999</v>
+        <v>48655.14663000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>53985.41562000001</v>
+        <v>54938.19741</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>110505.6231</v>
+        <v>110506.3943</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>97597.33692</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>249600.99257</v>
+        <v>249786.30034</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>197884.03074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>472496.25399</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>197449.662</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>85922509.20829999</v>
+        <v>85922548.07514</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>95422850.48280999</v>
+        <v>95438763.33959</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>119353356.36749</v>
+        <v>119545031.76427</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>143519956.65734</v>
+        <v>146281452.52007</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>170801807.6318</v>
+        <v>173274298.1574</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>203520795.11185</v>
+        <v>208423902.13871</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>212510313.27636</v>
+        <v>233390560.0605</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>288319272.49139</v>
+        <v>288704599.5387301</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>357981869.05841</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>429099397.09229</v>
+        <v>431406289.9396499</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>469987306.46557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>480719030.65081</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>503797367.013</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>73936138.49526</v>
+        <v>73936180.84581001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>82461683.64653002</v>
+        <v>82476525.66729</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>102696614.37244</v>
+        <v>102870736.08361</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>125036573.66794</v>
+        <v>127757853.1935</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>149552265.75331</v>
+        <v>151758381.72905</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>180831412.39546</v>
+        <v>185660297.39107</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>185197354.67622</v>
+        <v>204510305.8151</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>254486345.32483</v>
+        <v>254847447.00115</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>316778863.74861</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>378651469.27931</v>
+        <v>380830200.63211</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>411931652.49198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>421849071.3817199</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>444241415.516</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>14023767.19125</v>
@@ -1346,232 +1302,262 @@
         <v>14266973.40209</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>19013363.81401</v>
+        <v>19041427.59846</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>25809103.57381</v>
+        <v>25879369.68479</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>31938719.55209</v>
+        <v>32461078.23192</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>38300989.21014</v>
+        <v>39760668.01178</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>42003891.60501</v>
+        <v>44403419.60236</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>58329257.03967</v>
+        <v>58442258.66847</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>73645899.60853001</v>
+        <v>73645899.60853003</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>91929777.55785</v>
+        <v>92169463.29214999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>86221065.74018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>88048224.93462999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>85321441.34100001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>15594870.38333</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>18347164.0413</v>
+        <v>18353369.25172</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>22765118.50368001</v>
+        <v>22794168.04997</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>26251863.17157</v>
+        <v>26406689.60261</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>31658786.43019</v>
+        <v>31813354.88499</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>34395201.768</v>
+        <v>34830200.29567</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>40194397.73288001</v>
+        <v>41990799.10226</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>54649641.61796001</v>
+        <v>54688299.03999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>75064307.54650001</v>
+        <v>75064307.5465</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>80888027.76348999</v>
+        <v>81400500.39093001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>83038669.72789001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>85369142.44375001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>100600897.882</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>43603115.8894</v>
+        <v>43603158.23994999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>49151647.82524999</v>
+        <v>49160284.63559</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>59821724.57526001</v>
+        <v>59936199.31684999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>71006576.07610999</v>
+        <v>73501330.74355999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>84314573.52920002</v>
+        <v>85686308.22836</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>105019221.34291</v>
+        <v>107837398.92264</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>101160722.08882</v>
+        <v>116116143.15859</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>139295806.29769</v>
+        <v>139494682.56128</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>165494399.05593</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>202384315.04865</v>
+        <v>203808824.11692</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>239048959.52333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>244770832.90464</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>253738156.354</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>714385.03128</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>695898.3778899999</v>
+        <v>695898.37789</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1096407.47949</v>
+        <v>1098941.11833</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1969030.84645</v>
+        <v>1970463.16254</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1640186.24183</v>
+        <v>1797640.38378</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3116000.07441</v>
+        <v>3232030.16098</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1838343.24951</v>
+        <v>1999943.95189</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2211640.36951</v>
+        <v>2222206.73141</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>2574257.53765</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3449348.90932</v>
+        <v>3451412.83211</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3622957.50058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3660871.0987</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4580919.939</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>11986370.71304</v>
+        <v>11986367.22933</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>12961166.83628</v>
+        <v>12962237.6723</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>16656741.99505</v>
+        <v>16674295.68066</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>18483382.9894</v>
+        <v>18523599.32657</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>21249541.87849</v>
+        <v>21515916.42835</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>22689382.71639</v>
+        <v>22763604.74764</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>27312958.60013999</v>
+        <v>28880254.2454</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>33832927.16656001</v>
+        <v>33857152.53758</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>41203005.30980001</v>
+        <v>41203005.3098</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>50447927.81298</v>
+        <v>50576089.30754001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>58055653.97358999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>58869959.26909</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>59555951.497</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>6362211.481609998</v>
+        <v>6362150.829339999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>7292325.021520001</v>
+        <v>7294973.24304</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>9564748.263630001</v>
+        <v>9571208.091389999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>10887482.58352</v>
+        <v>10921010.34496</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>11923366.44062</v>
+        <v>12040524.86301</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>13397447.65457</v>
+        <v>13628213.0387</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>14847829.84371</v>
+        <v>15908302.5376</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>19095924.08344</v>
+        <v>19147285.13758001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>22653396.97205</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>26853861.04865</v>
+        <v>26959028.50448</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>28782822.78785</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>29209138.35246</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>30557708.307</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>32548.37195</v>
@@ -1580,256 +1566,286 @@
         <v>41142.77957999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>31329.83836999999</v>
+        <v>31329.83837</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>66800.51217</v>
+        <v>66814.22933999999</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>33107.25024</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>39647.45461</v>
+        <v>39649.52261</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>33734.97142</v>
+        <v>34033.61832</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>46242.75805</v>
+        <v>46264.44317999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>51998.81941999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>78548.96117</v>
+        <v>78551.00603999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>111455.33276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>111493.40407</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>131247.144</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>781903.0345200001</v>
+        <v>781903.0345199999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>935210.5956100001</v>
+        <v>935215.72111</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1477814.67552</v>
+        <v>1478817.81626</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1488419.98027</v>
+        <v>1490017.29844</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1716402.28594</v>
+        <v>1734365.21212</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1852225.2846</v>
+        <v>1889402.68982</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1982858.71445</v>
+        <v>2154028.92705</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2549100.52026</v>
+        <v>2555157.569079999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3202480.97719</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3927102.205589999</v>
+        <v>3938044.41298</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4340919.456530001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4389650.28105</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4738762.915</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>5547760.07514</v>
+        <v>5547699.422869999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>6315971.646329999</v>
+        <v>6318614.742349998</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>8055603.749740002</v>
+        <v>8061060.43676</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>9332262.091080001</v>
+        <v>9364178.81718</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>10173856.90444</v>
+        <v>10273052.40065</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>11505574.91536</v>
+        <v>11699160.82627</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>12831236.15784</v>
+        <v>13720239.99223</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>16500580.80513</v>
+        <v>16545863.12532</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>19398917.17543999</v>
+        <v>19398917.17544</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>22848209.88189</v>
+        <v>22942433.08546</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>24330447.99856</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>24707994.66734</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>25687698.248</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>5624159.231429999</v>
+        <v>5624216.39999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>5668841.81476</v>
+        <v>5667264.429260002</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>7091993.73142</v>
+        <v>7103087.589269999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>7595900.40588</v>
+        <v>7602588.981610001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>9326175.437870001</v>
+        <v>9475391.565340001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>9291935.061820002</v>
+        <v>9135391.708940001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>12465128.75643</v>
+        <v>12971951.7078</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>14737003.08312</v>
+        <v>14709867.4</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>18549608.33775</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>23594066.76433</v>
+        <v>23617060.80306</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>29272831.18573999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>29660820.91663</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>28998243.19</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6358928.633440002</v>
+        <v>6358933.525149999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8034697.72309</v>
+        <v>8041354.492430001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>10236604.95329</v>
+        <v>10265716.07308</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>9375455.935850002</v>
+        <v>9398334.128</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>12406212.7667</v>
+        <v>12716798.38041</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>17413415.51841</v>
+        <v>18064988.46615</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>25235211.26696</v>
+        <v>29632061.87617</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>32538817.96070001</v>
+        <v>32603241.48878</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>39438424.08617</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>93405616.73021001</v>
+        <v>93489969.43505999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>59061163.28394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>59218145.75298001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>81359860.704</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>773685.1395999999</v>
+        <v>773685.1396000001</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>582833.30263</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>866493.9814800002</v>
+        <v>871984.6818499999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>717290.1962899999</v>
+        <v>718410.56155</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1031390.69703</v>
+        <v>1033823.8144</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1177374.90791</v>
+        <v>1182383.29187</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1133755.83734</v>
+        <v>1283515.13529</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1368661.11809</v>
+        <v>1368670.03237</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>2250178.20928</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2379030.32855</v>
+        <v>2383775.80211</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4036014.24554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4025948.09609</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>4464227.264</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>908687.5642100002</v>
+        <v>908687.5642099996</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>927029.2546700001</v>
+        <v>933129.0183699999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>936769.2374100002</v>
+        <v>938103.81929</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1483030.75617</v>
+        <v>1483135.81017</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1059544.85397</v>
+        <v>1075196.4505</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2167374.49438</v>
+        <v>2248784.065810001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1455323.86731</v>
+        <v>1770531.708</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2115016.21058</v>
+        <v>2115031.74303</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>2352969.42841</v>
@@ -1838,52 +1854,62 @@
         <v>5450450.10528</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>5000239.049090001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5011968.903109999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5194418.348</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>821134.1783299999</v>
+        <v>821139.0700399999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>858294.1997200001</v>
+        <v>858709.0056399999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1155775.67337</v>
+        <v>1156110.98175</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1500607.57037</v>
+        <v>1504261.93292</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1387542.78327</v>
+        <v>1412742.07571</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1949473.93302</v>
+        <v>2039676.01564</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2270488.25199</v>
+        <v>2749463.75001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3155392.60354</v>
+        <v>3166381.77001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>4166433.3517</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5753237.448260001</v>
+        <v>5761832.405959999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6043470.26356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6087570.673140001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5007956.075</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>12752.27963</v>
@@ -1895,34 +1921,39 @@
         <v>14966.71603</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>13614.19523</v>
+        <v>13632.24323</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>16666.15072</v>
+        <v>16669.18909</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>15707.55723</v>
+        <v>16734.16217</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>62085.91313999999</v>
+        <v>62999.27202</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>87080.80780999998</v>
+        <v>87149.75251999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>40604.75911000001</v>
+        <v>40604.75911</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>79341.24597</v>
+        <v>79425.34521</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>48609.83106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>49298.23280000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>63641.409</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>100706.47442</v>
@@ -1934,268 +1965,303 @@
         <v>256313.37226</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>256812.13009</v>
+        <v>256812.4168</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>261029.40221</v>
+        <v>261097.49658</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>326775.1971</v>
+        <v>326787.4737800001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>61856.78625</v>
+        <v>64741.29095</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>88068.69550999998</v>
+        <v>88108.69651000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>109035.67614</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>207423.70452</v>
+        <v>207604.43737</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>221343.47485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>223142.46567</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>156900.469</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>164489.441</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>210504.16201</v>
+        <v>210504.16377</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>462886.8181200001</v>
+        <v>462891.6114299999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>539093.5671000001</v>
+        <v>539107.6781199999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>679051.41747</v>
+        <v>679133.8571799999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>391976.69871</v>
+        <v>393300.43648</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>512349.6527799999</v>
+        <v>646742.1256700001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>451149.49872</v>
+        <v>451327.7387700001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1145916.23036</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>691583.23946</v>
+        <v>691667.7703000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2549502.77713</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2549602.848970001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1834732.366</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2694228.111239999</v>
+        <v>2694228.11124</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3000214.19934</v>
+        <v>3000268.30165</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4933120.62836</v>
+        <v>4954802.4648</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3157292.26382</v>
+        <v>3174389.48527</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5499770.08184</v>
+        <v>5697671.4752</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8901801.931990001</v>
+        <v>9182585.283880001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>16974254.76108</v>
+        <v>19926952.84029</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>20911536.34651</v>
+        <v>20938037.09713</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>24421940.36065</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>72026272.61362001</v>
+        <v>72083355.24751</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>31510006.79796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>31603828.06187</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>57584307.333</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>46136.97829000001</v>
+        <v>46136.97829</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>29599.36451</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>46333.37174999999</v>
+        <v>46333.37175</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>65767.21215000001</v>
+        <v>65802.36029000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>99129.49905</v>
+        <v>99142.51027999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>87051.33546</v>
+        <v>87430.33470000002</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>210845.06313</v>
+        <v>211221.69339</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>199722.0733</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>311557.7666800001</v>
+        <v>311557.76668</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>241642.42541</v>
+        <v>241648.20944</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>200497.96454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>200358.83698</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>140298.353</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>67016.63605</v>
+        <v>67016.63605000002</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>429963.9211099999</v>
+        <v>429963.92111</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>367437.0365000001</v>
+        <v>367437.0365</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>130895.60304</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>93952.59434000001</v>
+        <v>93952.59434000004</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>6495.105000000001</v>
+        <v>6495.104999999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>14312.16679</v>
+        <v>14322.73248</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>29838.1694</v>
+        <v>31149.81241999999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>8899.78974</v>
+        <v>8899.789739999998</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>9508.94931</v>
+        <v>9508.949309999998</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>6726.8697</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>8313.45923</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>14594.107</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>770091.8306699999</v>
+        <v>770091.8306700001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1870444.59351</v>
+        <v>1870532.689160001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1196508.11801</v>
+        <v>1196772.01742</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1511052.44159</v>
+        <v>1511886.03661</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2278135.2868</v>
+        <v>2347368.91713</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2389384.35761</v>
+        <v>2580812.29682</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2539938.96715</v>
+        <v>2901571.32807</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4132352.437240001</v>
+        <v>4157662.772719999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4630888.514099999</v>
+        <v>4630888.5141</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6567126.66983</v>
+        <v>6580701.162570001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9444752.010510001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>9458114.175120002</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>6898784.98</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>3519369.05302</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3897289.90945</v>
+        <v>3898323.09809</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5951670.240350001</v>
+        <v>5980479.877339999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4327771.649339999</v>
+        <v>4347648.654710001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7807269.822980001</v>
+        <v>8172640.270029999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>10347473.64816</v>
+        <v>10667778.90467</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>20350418.12327</v>
+        <v>23624922.32772</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>26095066.39235001</v>
+        <v>26140582.62439</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>30150023.72644</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>88045330.96545002</v>
+        <v>88123225.15272997</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>42295202.38538001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>42452306.22083</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>69931966.69599999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>20782.30367</v>
@@ -2207,154 +2273,174 @@
         <v>19112.8197</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>22318.03239</v>
+        <v>22344.79287</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>29447.39374000001</v>
+        <v>29576.57095</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>44622.65957</v>
+        <v>44777.56898</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>29055.40849</v>
+        <v>30043.37301</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>46043.94401</v>
+        <v>46053.48828999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>50345.83082999999</v>
+        <v>50345.83083</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>66082.34175000001</v>
+        <v>66117.67660999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>98575.78225999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>99669.80219999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>88532.496</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>162116.38032</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>98480.09309000001</v>
+        <v>98480.09308999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>132150.44632</v>
+        <v>132547.76329</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>187615.03416</v>
+        <v>187619.18123</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>197989.78098</v>
+        <v>226853.02983</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>303880.3369000001</v>
+        <v>304409.03092</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>385623.01359</v>
+        <v>412832.17338</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>390723.1798099999</v>
+        <v>390728.85205</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>394411.0993799999</v>
+        <v>394411.09938</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>711414.4591399999</v>
+        <v>711564.61378</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>678185.97938</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>682327.85419</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>624239.613</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>45838.32229</v>
+        <v>45838.32228999999</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>25273.40716</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>57519.61922000001</v>
+        <v>57519.61922</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>205041.89831</v>
+        <v>205043.85721</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>285759.96071</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>60692.31367999999</v>
+        <v>62287.32009</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>310494.64069</v>
+        <v>360407.61195</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>278421.3103300001</v>
+        <v>278459.55741</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>460560.0788699999</v>
+        <v>460560.07887</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>474150.54781</v>
+        <v>474150.5478100001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>339081.6639099999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>339097.51248</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>514025.441</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>2477838.47639</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2784113.2745</v>
+        <v>2784152.134649999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4713243.63882</v>
+        <v>4735013.61847</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2808130.53446</v>
+        <v>2823707.06664</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5872039.206800001</v>
+        <v>6188086.430339999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8556943.112520002</v>
+        <v>8809541.33398</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>18042435.43591</v>
+        <v>21043382.06947999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>23277654.41759</v>
+        <v>23301890.56377</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>25704221.20865</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>80287026.70594999</v>
+        <v>80361630.15654001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>33640323.03304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>33746318.83791</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>64914881.117</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>33446.59644000001</v>
+        <v>33446.59644</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>24420.74484</v>
@@ -2363,37 +2449,42 @@
         <v>44360.80844</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>75550.72594000002</v>
+        <v>75550.72594</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>99880.98052</v>
+        <v>99880.98052000003</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>100363.40225</v>
+        <v>100464.86732</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>222399.71815</v>
+        <v>222665.78109</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>257441.0046</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>355878.0445699999</v>
+        <v>355878.04457</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>259435.09251</v>
+        <v>259462.19056</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>174882.31679</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>174862.4806</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>136910.379</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>75510.98622000002</v>
+        <v>75510.98621999999</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>393849.7333</v>
@@ -2402,16 +2493,16 @@
         <v>380734.83046</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>89525.13525000001</v>
+        <v>89525.13525000002</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>73077.50436000001</v>
+        <v>73122.46065000001</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>28204.22279</v>
+        <v>28204.22289</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>16120.80898</v>
+        <v>16174.03622</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>21395.71255</v>
@@ -2423,247 +2514,282 @@
         <v>4991.718510000001</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>1436.88443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>1448.40911</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>1866.884</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>703835.98769</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>556294.5196099998</v>
+        <v>557288.8480999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>604548.0773900001</v>
+        <v>611190.41776</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>939590.2888300001</v>
+        <v>943857.8955700001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1249074.99587</v>
+        <v>1269360.83703</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1252767.60045</v>
+        <v>1318094.56049</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1344289.09746</v>
+        <v>1539417.28259</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1823386.82346</v>
+        <v>1844613.44572</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3183243.601499999</v>
+        <v>3183243.6015</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6242230.099780001</v>
+        <v>6245308.24892</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>7362716.725570002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7408581.32434</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3651510.766</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1972472.67563</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1728056.24298</v>
+        <v>1730708.82223</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2652179.05602</v>
+        <v>2657630.35722</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2859742.33794</v>
+        <v>2881541.8092</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3610955.16668</v>
+        <v>3698177.465890001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5062757.778160001</v>
+        <v>5170368.38098</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6869833.610619999</v>
+        <v>8021103.60854</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>9495129.349100001</v>
+        <v>9526317.81102</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>12523241.04826</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>24628992.17806</v>
+        <v>24641793.08233</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>23936891.21732</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>24021905.55219</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>28060827.831</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1618248.70905</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1467287.39579</v>
+        <v>1469939.97504</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2165852.46746</v>
+        <v>2171282.89289</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2472445.014</v>
+        <v>2494093.55925</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3144605.67387</v>
+        <v>3225178.13555</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4434152.502889998</v>
+        <v>4539043.052309999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5774939.91488</v>
+        <v>6853092.913520002</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>8483853.031030001</v>
+        <v>8514825.547489999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>11061783.46058</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>21331238.39027</v>
+        <v>21342613.92729999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>21053764.5426</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>21132513.1621</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>23724361.19</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>354223.96658</v>
+        <v>354223.9665800001</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>260768.84719</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>486326.58856</v>
+        <v>486347.4643299999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>387297.32394</v>
+        <v>387448.2499499999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>466349.49281</v>
+        <v>472999.33034</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>628605.27527</v>
+        <v>631325.3286700001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1094893.69574</v>
+        <v>1168010.69502</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1011276.31807</v>
+        <v>1011492.26353</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1461457.58768</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3297753.78779</v>
+        <v>3299179.15503</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2883126.67472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2889392.39009</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4336466.641</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6491246.136220001</v>
+        <v>6491308.19649</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>8078193.38542</v>
+        <v>8079587.001369999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>8724749.388340002</v>
+        <v>8730693.427790003</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>9783842.35445</v>
+        <v>9771732.645699998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>10314163.21491</v>
+        <v>10321372.20983</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>11295119.15391</v>
+        <v>11362232.88944</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>10480088.2895</v>
+        <v>10957987.64771</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>11685625.30237</v>
+        <v>11646208.45337</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>15314767.64922</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4325360.35103</v>
+        <v>4342012.003059999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>22101900.86698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>22404754.89659</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>12365309.367</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1123520.84521</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1604294.16828</v>
+        <v>1604364.51067</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1776311.42832</v>
+        <v>1779452.26321</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2445154.238309999</v>
+        <v>2462008.86178</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2149161.35577</v>
+        <v>2191909.42151</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3376744.791689999</v>
+        <v>3512026.088169999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3279971.207199999</v>
+        <v>3629281.87244</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5947746.725200001</v>
+        <v>5962235.80595</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>5820395.625639999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8557700.59991</v>
+        <v>8567504.863179998</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>10148538.927</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>10182044.83284</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>10530515.29</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>168356.99581</v>
@@ -2672,346 +2798,389 @@
         <v>180472.8743</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>256310.00371</v>
+        <v>256924.79262</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>241120.28877</v>
+        <v>242183.37337</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>314604.3284599999</v>
+        <v>316607.97399</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>213440.59006</v>
+        <v>247577.45603</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>245156.27539</v>
+        <v>272889.65044</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>372955.77164</v>
+        <v>373083.52208</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>513780.72435</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>460626.87885</v>
+        <v>462130.5830100001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>505004.64516</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>506800.40453</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>512107.899</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>955163.8493999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1423821.29398</v>
+        <v>1423891.63637</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1520001.42461</v>
+        <v>1522527.47059</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2204033.94954</v>
+        <v>2219825.48841</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1834557.02731</v>
+        <v>1875301.44752</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3163304.20163</v>
+        <v>3264448.63214</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3034814.93181</v>
+        <v>3356392.222</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5574790.95356</v>
+        <v>5589152.283869999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>5306614.90129</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>8097073.721059999</v>
+        <v>8105374.280169999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9643534.281840002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>9675244.428310001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>10018407.391</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1273173.29415</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1539885.74995</v>
+        <v>1540237.29982</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>6592368.17087</v>
+        <v>6608772.73618</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2200578.01342</v>
+        <v>2224195.5116</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2272381.24567</v>
+        <v>2344531.17338</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5047443.10427</v>
+        <v>5266408.303479999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3414938.58096</v>
+        <v>3788122.60075</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>8086898.73451</v>
+        <v>8090924.29678</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>6053583.751599999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8517912.016450001</v>
+        <v>8540684.8245</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>8473997.304880001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>8532825.16202</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>8659422.015000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>66244.95142</v>
+        <v>66244.95142000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>78376.50744</v>
+        <v>78401.67275</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>68803.90811999999</v>
+        <v>68815.67676</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>42079.72642</v>
+        <v>42482.50112</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>62600.02109</v>
+        <v>63747.78298</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>74870.55205999999</v>
+        <v>76551.94980000002</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>94056.91292999999</v>
+        <v>95492.48695000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>119696.47053</v>
+        <v>119773.35205</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>153698.04306</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>143554.79512</v>
+        <v>143575.82129</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>129802.73698</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>130023.86138</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>167421.751</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>248457.9208</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>304270.7929400001</v>
+        <v>304375.43066</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>405994.78159</v>
+        <v>406189.4221700001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>340345.80702</v>
+        <v>348947.60954</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>425820.49384</v>
+        <v>435062.1881799999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>466863.83682</v>
+        <v>620036.8713400001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>529121.4024099999</v>
+        <v>600666.39177</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>810276.28446</v>
+        <v>810769.9361300002</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>807222.3458400003</v>
+        <v>807222.3458400001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>928469.3467800001</v>
+        <v>933346.07063</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>862818.07977</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>872247.64477</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1050095.505</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>958470.42193</v>
+        <v>958470.4219300001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1157238.44957</v>
+        <v>1157460.19641</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>6117569.481160001</v>
+        <v>6133767.637250001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1818152.47998</v>
+        <v>1832765.40094</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1783960.73074</v>
+        <v>1845721.20222</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4505708.71539</v>
+        <v>4569819.482340001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2791760.265619999</v>
+        <v>3091963.72203</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7156925.979520001</v>
+        <v>7160381.008599999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>5092663.362699999</v>
+        <v>5092663.3627</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7445887.874550001</v>
+        <v>7463762.932580001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>7481376.488129999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>7530553.655870001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7441904.759</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6341593.68728</v>
+        <v>6341655.74755</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>8142601.80375</v>
+        <v>8143714.212219999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3908692.64579</v>
+        <v>3901372.95482</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>10028418.57934</v>
+        <v>10009545.99588</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>10190943.32501</v>
+        <v>10168750.45796</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>9624420.841330001</v>
+        <v>9607850.67413</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>10345120.91574</v>
+        <v>10799146.9194</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>9546473.293059999</v>
+        <v>9517519.962540001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>15081579.52326</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4365148.934490001</v>
+        <v>4368832.041740002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>23776442.4891</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>24053974.56741</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>14236402.642</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1088959.6766</v>
+        <v>1088959.9582</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1344142.07152</v>
+        <v>1344530.70622</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1602199.42346</v>
+        <v>1602413.39802</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1858177.77605</v>
+        <v>1862363.63677</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1922821.98801</v>
+        <v>1937188.86848</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2179135.66116</v>
+        <v>2204356.905189999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2659170.413510001</v>
+        <v>2871959.65188</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3497215.72488</v>
+        <v>3500429.8427</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3606845.11263</v>
+        <v>3606845.112629999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>4294008.78471</v>
+        <v>4307934.945619999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5624105.315879998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>5734587.5502</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5627092.554</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>5252634.01068</v>
+        <v>5252695.789349999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>6798459.732229998</v>
+        <v>6799183.505999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2306493.22233</v>
+        <v>2298959.5568</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>8170240.803289998</v>
+        <v>8147182.359109999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>8268121.336999999</v>
+        <v>8231561.589480001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>7445285.180170001</v>
+        <v>7403493.76894</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>7685950.502230001</v>
+        <v>7927187.267519999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>6049257.56818</v>
+        <v>6017090.11984</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>11474734.41063</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>71140.14977999957</v>
+        <v>60897.09611999932</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>18152337.17322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>18319387.01721</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>8609310.088</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>79734</v>
+        <v>79735</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>83505</v>
+        <v>83516</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>88658</v>
+        <v>88701</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>89470</v>
+        <v>89706</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>90386</v>
+        <v>90811</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>93282</v>
+        <v>94069</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>98802</v>
+        <v>100931</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>106998</v>
+        <v>107536</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>115748</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>117437</v>
+        <v>120833</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>115824</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>121494</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>127050</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>